--- a/数据模板/牛只导入模板.xlsx
+++ b/数据模板/牛只导入模板.xlsx
@@ -14,85 +14,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>牛只编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圈舍编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子耳标编号</t>
+  </si>
+  <si>
+    <t>计步器编号</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>入群类型</t>
+  </si>
+  <si>
+    <t>入群时间</t>
+  </si>
+  <si>
+    <t>出生重</t>
+  </si>
+  <si>
+    <t>品种</t>
+  </si>
+  <si>
+    <t>毛色</t>
+  </si>
+  <si>
+    <t>胎次</t>
+  </si>
+  <si>
+    <t>产犊日期</t>
+  </si>
+  <si>
+    <t>父编号</t>
+  </si>
+  <si>
+    <t>母编号</t>
+  </si>
+  <si>
+    <t>泌乳状态</t>
+  </si>
+  <si>
+    <t>繁殖状态</t>
+  </si>
   <si>
     <t>备注信息</t>
+  </si>
+  <si>
+    <t>JS002</t>
+  </si>
+  <si>
+    <t>DR001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001</t>
+    <t>公</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002</t>
+    <t>自繁</t>
+  </si>
+  <si>
+    <t>优</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饲养员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽医</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市房山区</t>
+    <t>白色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,6 +98,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,11 +142,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,106 +459,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="12" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="16.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42135.509027777778</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2">
+        <v>42105.375</v>
+      </c>
+      <c r="I2" s="3">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
+      <c r="M2" s="2">
+        <v>42126.583333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"母,公"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"自繁,购买"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
